--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
   </si>
   <si>
     <t>Issue</t>
@@ -176,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -543,6 +546,17 @@
       </c>
       <c r="C33" t="n" s="0">
         <v>94.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>86.0</v>
       </c>
     </row>
   </sheetData>
@@ -560,13 +574,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -179,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -557,6 +560,17 @@
       </c>
       <c r="C34" t="n" s="0">
         <v>86.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>83.0</v>
       </c>
     </row>
   </sheetData>
@@ -574,13 +588,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
   </si>
   <si>
     <t>Issue</t>
@@ -182,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -571,6 +574,17 @@
       </c>
       <c r="C35" t="n" s="0">
         <v>83.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>66.0</v>
       </c>
     </row>
   </sheetData>
@@ -588,13 +602,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -185,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -585,6 +591,28 @@
       </c>
       <c r="C36" t="n" s="0">
         <v>66.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>46.0</v>
       </c>
     </row>
   </sheetData>
@@ -602,13 +630,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -191,7 +197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -613,6 +619,28 @@
       </c>
       <c r="C38" t="n" s="0">
         <v>46.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>40.0</v>
       </c>
     </row>
   </sheetData>
@@ -630,13 +658,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
   </si>
   <si>
     <t>Issue</t>
@@ -197,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -641,6 +650,39 @@
       </c>
       <c r="C40" t="n" s="0">
         <v>40.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -658,13 +700,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
   </si>
   <si>
     <t>Issue</t>
@@ -206,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -683,6 +686,17 @@
       </c>
       <c r="C43" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +714,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
   </si>
   <si>
     <t>Issue</t>
@@ -209,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -697,6 +703,28 @@
       </c>
       <c r="C44" t="n" s="0">
         <v>29.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -714,13 +742,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -215,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -724,6 +727,17 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
         <v>25.0</v>
       </c>
     </row>
@@ -742,13 +756,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -218,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -738,6 +747,39 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="n" s="0">
         <v>25.0</v>
       </c>
     </row>
@@ -756,13 +798,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -227,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -781,6 +793,50 @@
       </c>
       <c r="C50" t="n" s="0">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -798,13 +854,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -239,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -837,6 +840,17 @@
       </c>
       <c r="C54" t="n" s="0">
         <v>28.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -854,13 +868,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Issue</t>
@@ -242,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -850,6 +856,28 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -868,13 +896,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -248,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -878,6 +884,28 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C58" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -896,13 +924,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -254,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -907,6 +910,17 @@
       </c>
       <c r="C59" t="n" s="0">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -924,13 +938,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
   </si>
   <si>
     <t>Issue</t>
@@ -257,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -921,6 +927,28 @@
       </c>
       <c r="C60" t="n" s="0">
         <v>26.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -938,13 +966,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
   </si>
   <si>
     <t>Issue</t>
@@ -263,7 +275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -949,6 +961,50 @@
       </c>
       <c r="C62" t="n" s="0">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -966,13 +1022,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -275,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1005,6 +1008,17 @@
       </c>
       <c r="C66" t="n" s="0">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -1022,13 +1036,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -278,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1018,6 +1021,17 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1036,13 +1050,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
   </si>
   <si>
     <t>Issue</t>
@@ -281,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1033,6 +1036,17 @@
       </c>
       <c r="C68" t="n" s="0">
         <v>29.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1050,13 +1064,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Issue</t>
@@ -284,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1047,6 +1053,28 @@
       </c>
       <c r="C69" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1064,13 +1092,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
   </si>
   <si>
     <t>Issue</t>
@@ -290,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1075,6 +1096,83 @@
       </c>
       <c r="C71" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n" s="0">
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>
@@ -1092,13 +1190,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
   </si>
   <si>
     <t>Issue</t>
@@ -311,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1172,6 +1175,17 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="n" s="0">
         <v>32.0</v>
       </c>
     </row>
@@ -1190,13 +1204,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -314,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1187,6 +1190,17 @@
       </c>
       <c r="C79" t="n" s="0">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1204,13 +1218,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
   </si>
   <si>
     <t>Issue</t>
@@ -317,7 +320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1201,6 +1204,17 @@
       </c>
       <c r="C80" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1218,13 +1232,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
   </si>
   <si>
     <t>Issue</t>
@@ -320,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1215,6 +1218,17 @@
       </c>
       <c r="C81" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1246,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
   </si>
   <si>
     <t>Issue</t>
@@ -323,7 +326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1229,6 +1232,17 @@
       </c>
       <c r="C82" t="n" s="0">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1246,13 +1260,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -326,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1243,6 +1246,17 @@
       </c>
       <c r="C83" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1274,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -329,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1256,6 +1259,17 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1274,13 +1288,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
   </si>
   <si>
     <t>Issue</t>
@@ -332,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1270,6 +1273,17 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1288,13 +1302,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
   </si>
   <si>
     <t>Issue</t>
@@ -335,7 +338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1284,6 +1287,17 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1302,13 +1316,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -338,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1299,6 +1305,28 @@
       </c>
       <c r="C87" t="n" s="0">
         <v>28.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -1316,13 +1344,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -344,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1327,6 +1330,17 @@
       </c>
       <c r="C89" t="n" s="0">
         <v>29.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -1344,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -347,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1341,6 +1344,17 @@
       </c>
       <c r="C90" t="n" s="0">
         <v>28.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -1358,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
     <t>2025-10-08</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="61">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="71">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="76">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
     <t>2025-10-09</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="60">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="70">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="75">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
     <t>2025-10-10</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="53">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="69">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="74">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
   </si>
   <si>
     <t>2025-10-11</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +372,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +383,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +394,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +405,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +416,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +460,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +482,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +493,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +504,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +515,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +526,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +537,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +559,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +570,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +592,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +603,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +625,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +636,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +647,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +669,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +691,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +713,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +735,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +757,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +779,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +790,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +801,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +812,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +834,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +856,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +878,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +889,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +911,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -969,7 +966,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +977,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -1013,7 +1010,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1021,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1043,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1065,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1087,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="68">
@@ -1145,7 +1142,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="73">
@@ -1189,7 +1186,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1197,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1208,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1219,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1230,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1277,7 +1274,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1296,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1307,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1329,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
     <t>2025-10-12</t>
   </si>
   <si>
@@ -289,6 +286,12 @@
   </si>
   <si>
     <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -347,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -372,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>22.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="3">
@@ -383,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="4">
@@ -394,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="6">
@@ -427,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="8">
@@ -438,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="10">
@@ -471,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="12">
@@ -482,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="13">
@@ -493,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="14">
@@ -504,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="16">
@@ -526,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="17">
@@ -537,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="18">
@@ -548,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="19">
@@ -559,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="20">
@@ -570,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="21">
@@ -581,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="22">
@@ -592,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="23">
@@ -603,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="25">
@@ -625,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="27">
@@ -647,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="29">
@@ -669,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="31">
@@ -691,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
@@ -713,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="34">
@@ -724,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="35">
@@ -735,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="36">
@@ -746,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="37">
@@ -757,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="38">
@@ -768,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -779,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="40">
@@ -790,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -801,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -823,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -845,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -867,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -878,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -900,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -955,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -966,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="57">
@@ -999,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1010,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="61">
@@ -1032,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
@@ -1054,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="65">
@@ -1076,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="67">
@@ -1131,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="72">
@@ -1175,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="76">
@@ -1186,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="77">
@@ -1197,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="78">
@@ -1208,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="79">
@@ -1219,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1263,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="84">
@@ -1285,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">
@@ -1296,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">
@@ -1318,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1329,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="90">
@@ -1340,6 +1343,17 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -1358,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-12</t>
-  </si>
-  <si>
     <t>2025-10-13</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>33.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="56">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="66">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="71">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
     <t>2025-10-14</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>43.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="55">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="65">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="70">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="54">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="64">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="69">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
     <t>2025-10-16</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>Issue</t>
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="53">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="63">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="68">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
     <t>2025-10-17</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>58.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="52">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="62">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="67">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
     <t>2025-10-18</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="51">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="61">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="66">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-18</t>
   </si>
   <si>
     <t>2025-10-19</t>
@@ -350,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +372,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +394,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +405,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +416,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +438,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +460,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +471,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +482,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +493,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +504,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +515,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +526,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +537,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +548,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +559,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +570,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +592,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +603,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +625,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +636,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +647,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +658,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +669,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +691,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +702,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +713,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +724,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +768,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +790,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +801,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
@@ -881,7 +878,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +889,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="50">
@@ -925,7 +922,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +933,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +955,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +977,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +999,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="60">
@@ -1057,7 +1054,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="65">
@@ -1101,7 +1098,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1109,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1120,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1131,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1142,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1189,7 +1186,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1208,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1219,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1241,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1252,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1299,7 +1296,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1318,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1329,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,17 +1340,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1372,13 +1358,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -347,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -383,7 +380,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="4">
@@ -394,7 +391,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +413,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +424,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="8">
@@ -438,7 +435,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +446,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="10">
@@ -460,7 +457,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="11">
@@ -471,7 +468,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="12">
@@ -482,7 +479,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="13">
@@ -493,7 +490,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="14">
@@ -504,7 +501,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +512,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="16">
@@ -526,7 +523,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="17">
@@ -537,7 +534,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="18">
@@ -548,7 +545,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="19">
@@ -559,7 +556,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="20">
@@ -570,7 +567,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="21">
@@ -581,7 +578,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="22">
@@ -592,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="23">
@@ -603,7 +600,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +611,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="25">
@@ -625,7 +622,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="26">
@@ -636,7 +633,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="27">
@@ -647,7 +644,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +655,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="29">
@@ -669,7 +666,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +677,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="31">
@@ -691,7 +688,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="32">
@@ -702,7 +699,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -713,7 +710,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -735,7 +732,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -757,7 +754,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
@@ -779,7 +776,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="40">
@@ -790,7 +787,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="41">
@@ -812,7 +809,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
@@ -867,7 +864,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -878,7 +875,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="49">
@@ -911,7 +908,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
@@ -922,7 +919,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="53">
@@ -944,7 +941,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="55">
@@ -966,7 +963,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +985,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="59">
@@ -1043,7 +1040,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="64">
@@ -1087,7 +1084,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1095,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="69">
@@ -1109,7 +1106,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="70">
@@ -1120,7 +1117,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="71">
@@ -1131,7 +1128,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1175,7 +1172,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="76">
@@ -1197,7 +1194,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1208,7 +1205,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1230,7 +1227,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1241,7 +1238,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1285,7 +1282,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1307,7 +1304,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -1318,7 +1315,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1329,17 +1326,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1358,13 +1344,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
     <t>2025-10-21</t>
   </si>
   <si>
@@ -286,6 +283,18 @@
   </si>
   <si>
     <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
   <si>
     <t>Issue</t>
@@ -344,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -369,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="3">
@@ -380,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="4">
@@ -391,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="7">
@@ -424,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="8">
@@ -435,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
@@ -468,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="12">
@@ -479,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="13">
@@ -490,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="14">
@@ -501,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="15">
@@ -512,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="16">
@@ -523,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="17">
@@ -534,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="19">
@@ -556,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="20">
@@ -567,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="21">
@@ -578,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="22">
@@ -589,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="23">
@@ -600,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="24">
@@ -611,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="26">
@@ -633,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="27">
@@ -644,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="28">
@@ -655,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="30">
@@ -677,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +697,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -699,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -721,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -743,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -765,7 +774,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="39">
@@ -776,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="40">
@@ -798,7 +807,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="42">
@@ -853,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -864,7 +873,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +906,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="51">
@@ -908,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -930,7 +939,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
@@ -952,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -974,7 +983,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="58">
@@ -1029,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="63">
@@ -1073,7 +1082,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
@@ -1084,7 +1093,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="68">
@@ -1095,7 +1104,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="69">
@@ -1106,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="70">
@@ -1117,7 +1126,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1161,7 +1170,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="75">
@@ -1183,7 +1192,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1194,7 +1203,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="78">
@@ -1216,7 +1225,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1227,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="81">
@@ -1271,7 +1280,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1293,7 +1302,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">
@@ -1304,7 +1313,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1326,7 +1335,40 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -1344,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
   </si>
   <si>
     <t>2025-10-22</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -719,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -741,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -763,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="38">
@@ -774,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="39">
@@ -796,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
@@ -851,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -862,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
@@ -895,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="50">
@@ -906,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="53">
@@ -950,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="55">
@@ -972,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="57">
@@ -1027,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="62">
@@ -1071,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -1082,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="67">
@@ -1093,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="68">
@@ -1104,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
@@ -1159,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="74">
@@ -1181,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="77">
@@ -1214,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1225,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="80">
@@ -1269,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1291,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1324,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>25.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
     <t>2025-10-23</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>82.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="40">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="56">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
     <t>2025-10-24</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>92.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="39">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="55">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="78">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
     <t>2025-10-25</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="38">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="54">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="77">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-25</t>
-  </si>
-  <si>
     <t>2025-10-26</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="53">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="66">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="76">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-26</t>
-  </si>
-  <si>
     <t>2025-10-27</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="52">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="57">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="65">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="75">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
     <t>2025-10-28</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="51">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="64">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="50">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
     <t>2025-10-30</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="49">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="54">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="81">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="89">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
     <t>2025-10-31</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="32">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="48">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="53">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="61">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="71">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="88">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
     <t>2025-11-01</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="31">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="52">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="70">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="87">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>2025-11-02</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>102.0</v>
+        <v>113.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="46">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="69">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="78">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="86">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="91">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
     <t>2025-11-03</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="50">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="68">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="85">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="90">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
     <t>2025-11-04</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>115.0</v>
+        <v>107.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -749,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +763,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +807,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -881,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
@@ -925,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +939,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +950,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +972,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -1013,7 +1016,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1071,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1082,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="67">
@@ -1123,7 +1126,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1148,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1159,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76">
@@ -1222,7 +1225,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1247,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="84">
@@ -1299,7 +1302,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1313,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1335,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="90">
@@ -1354,6 +1357,17 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1372,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
   </si>
   <si>
     <t>2025-11-05</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -609,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="25">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -708,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -741,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -752,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">
@@ -774,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="39">
@@ -796,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -818,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -873,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="48">
@@ -917,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -928,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="53">
@@ -939,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="54">
@@ -950,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="55">
@@ -961,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="56">
@@ -1005,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
@@ -1027,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1060,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="65">
@@ -1071,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -1115,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1137,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
@@ -1148,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1170,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="75">
@@ -1214,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1225,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1236,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="81">
@@ -1247,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="82">
@@ -1258,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="83">
@@ -1291,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1313,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -1324,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
     <t>2025-11-06</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="55">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="61">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="65">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="82">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
     <t>2025-11-07</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>100.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="54">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="81">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>94.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>86.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="80">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
     <t>2025-11-10</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>86.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>83.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>66.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="32">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
     <t>2025-11-11</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>54.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -672,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="37">
@@ -804,7 +807,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -848,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +873,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +895,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -936,7 +939,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +972,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +994,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1005,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
@@ -1046,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1071,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1082,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1104,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
@@ -1145,7 +1148,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1159,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1170,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1192,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="77">
@@ -1222,7 +1225,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1247,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1343,7 +1346,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="91">
@@ -1355,6 +1358,17 @@
       </c>
       <c r="C91" t="n" s="0">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -1372,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
     <t>2025-11-13</t>
   </si>
   <si>
@@ -295,6 +289,12 @@
   </si>
   <si>
     <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -378,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +488,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="20">
@@ -609,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -653,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +697,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="32">
@@ -708,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
@@ -719,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="34">
@@ -730,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
@@ -741,7 +741,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="36">
@@ -785,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -796,7 +796,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -829,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -840,7 +840,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="45">
@@ -851,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
@@ -862,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
@@ -873,7 +873,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="48">
@@ -884,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -917,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
@@ -928,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="53">
@@ -939,7 +939,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="54">
@@ -950,7 +950,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -961,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
@@ -972,7 +972,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -994,7 +994,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1027,7 +1027,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1049,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1071,7 +1071,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
@@ -1082,7 +1082,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="67">
@@ -1093,7 +1093,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
@@ -1126,7 +1126,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
@@ -1148,7 +1148,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="73">
@@ -1159,7 +1159,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="74">
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="76">
@@ -1203,7 +1203,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="78">
@@ -1214,7 +1214,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1225,7 +1225,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="80">
@@ -1236,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1247,7 +1247,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1324,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
@@ -1335,7 +1335,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="90">
@@ -1346,7 +1346,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="91">
@@ -1357,7 +1357,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="92">
@@ -1368,7 +1368,7 @@
         <v>0.0</v>
       </c>
       <c r="C92" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
   </si>
   <si>
     <t>2025-11-14</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="16">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="28">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="30">
@@ -697,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="32">
@@ -719,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="34">
@@ -774,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -818,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -829,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -840,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -851,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
@@ -862,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -906,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
@@ -939,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -961,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="56">
@@ -972,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -1016,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
@@ -1038,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1049,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1071,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
@@ -1115,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1126,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
@@ -1137,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="72">
@@ -1148,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="73">
@@ -1159,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="74">
@@ -1192,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1203,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1214,7 +1211,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1225,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1313,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -1335,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="90">
@@ -1346,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="91">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
     <t>2025-11-15</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +477,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
@@ -584,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -628,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="33">
@@ -760,7 +763,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -804,7 +807,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +818,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +840,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +895,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +950,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="55">
@@ -958,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
@@ -1002,7 +1005,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1027,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1035,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1060,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -1101,7 +1104,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1126,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1148,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="73">
@@ -1178,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1192,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1203,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,7 +1214,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1299,7 +1302,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1335,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1357,18 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1372,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +22,6 @@
   </si>
   <si>
     <t>HTTPS URLs</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
   </si>
   <si>
     <t>2025-11-16</t>
@@ -353,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -444,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -466,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="14">
@@ -521,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -620,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="28">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="30">
@@ -697,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
@@ -796,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -807,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -818,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
@@ -829,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -840,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="45">
@@ -884,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
@@ -906,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
@@ -917,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -939,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="54">
@@ -950,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -994,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1016,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="61">
@@ -1027,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1049,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="64">
@@ -1093,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
@@ -1104,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="70">
@@ -1126,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="71">
@@ -1137,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="72">
@@ -1170,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="75">
@@ -1181,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="77">
@@ -1203,7 +1200,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1291,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
@@ -1313,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">
@@ -1324,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="89">
@@ -1346,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="91">
@@ -1357,17 +1354,6 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C92" t="n" s="0">
         <v>30.0</v>
       </c>
     </row>
@@ -1386,13 +1372,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-16</t>
-  </si>
-  <si>
     <t>2025-11-17</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="31">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="71">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="76">
@@ -1189,7 +1189,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
     <t>2025-11-18</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="53">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="70">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="75">
@@ -1178,7 +1178,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="89">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
     <t>2025-11-19</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="10">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +551,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -804,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="42">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="48">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
@@ -914,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="58">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="61">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="69">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
@@ -1167,7 +1167,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="88">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-19</t>
-  </si>
-  <si>
     <t>2025-11-20</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-17</t>
   </si>
   <si>
     <t>Issue</t>
@@ -375,7 +375,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -540,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +584,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="33">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -793,7 +793,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="41">
@@ -837,7 +837,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -903,7 +903,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -947,7 +947,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +980,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="60">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="67">
@@ -1090,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="68">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -1156,7 +1156,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1244,7 +1244,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1277,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="87">
@@ -1332,7 +1332,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -24,9 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-20</t>
-  </si>
-  <si>
     <t>2025-11-21</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>2026-02-17</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
   </si>
   <si>
     <t>Issue</t>
@@ -386,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +518,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -562,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="27">
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +749,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +771,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="40">
@@ -826,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -892,7 +892,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -936,7 +936,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +969,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
@@ -1035,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="64">
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="66">
@@ -1079,7 +1079,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="67">
@@ -1112,7 +1112,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1134,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
@@ -1145,7 +1145,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1233,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="86">
@@ -1321,7 +1321,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="91">

--- a/gsc-export/HTTPS.xlsx
+++ b/gsc-export/HTTPS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -24,12 +24,6 @@
     <t>HTTPS URLs</t>
   </si>
   <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
     <t>2025-11-23</t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t>2026-02-18</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -350,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -375,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -408,7 +411,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
@@ -419,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="7">
@@ -430,7 +433,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +455,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="10">
@@ -496,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -507,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -551,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -562,7 +565,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="20">
@@ -573,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="21">
@@ -584,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="22">
@@ -595,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="24">
@@ -617,7 +620,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
@@ -628,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="26">
@@ -672,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="31">
@@ -716,7 +719,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="34">
@@ -727,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
@@ -738,7 +741,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
@@ -749,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
@@ -760,7 +763,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="38">
@@ -771,7 +774,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="39">
@@ -804,7 +807,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -815,7 +818,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -826,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -837,7 +840,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -848,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -859,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -914,7 +917,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
@@ -925,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="53">
@@ -936,7 +939,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -969,7 +972,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="57">
@@ -980,7 +983,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -1013,7 +1016,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1071,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1093,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
@@ -1101,7 +1104,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1112,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1126,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1134,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1211,7 +1214,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1225,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="80">
@@ -1233,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1244,7 +1247,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="82">
@@ -1255,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
@@ -1266,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1280,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1302,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="87">
@@ -1310,7 +1313,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="88">
@@ -1321,7 +1324,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="89">
@@ -1332,7 +1335,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="90">
@@ -1355,6 +1358,17 @@
       </c>
       <c r="C91" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C92" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1372,13 +1386,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
